--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timsiebert/Desktop/Data Understanding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5009F58-557F-884B-B6FE-90A249D5C972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EF6E9C-5998-C443-8273-3EF666B38FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19580" xr2:uid="{A808B9A0-E61F-9A4A-BE00-04850FC7F5E8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19580" xr2:uid="{A808B9A0-E61F-9A4A-BE00-04850FC7F5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305F214E-16FD-4142-ADBF-43F5DB96A6DD}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="404" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
